--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -46,7 +46,7 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>Laos24</t>
+    <t>Laos23</t>
   </si>
 </sst>
 </file>
@@ -64,7 +64,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,25 +96,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,17 +421,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -450,43 +447,43 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>100.0833</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>107.6333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>13.9197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>22.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -46,7 +46,7 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>Laos23</t>
+    <t>EU23</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>100.0833</v>
+        <v>-10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>107.6333</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>13.9197</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>22.5</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">

--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -46,7 +46,7 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>EU23</t>
+    <t>Laos23</t>
   </si>
 </sst>
 </file>

--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -46,7 +46,7 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>Laos23</t>
+    <t>EU23</t>
   </si>
 </sst>
 </file>

--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -46,7 +46,7 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>EU23</t>
+    <t>Laos23</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>-10</v>
+        <v>100.0833</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>35</v>
+        <v>107.6333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>35</v>
+        <v>13.9197</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>70</v>
+        <v>22.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">

--- a/Parameters/weather_parameters.xlsx
+++ b/Parameters/weather_parameters.xlsx
@@ -46,7 +46,7 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>Laos23</t>
+    <t>XXXX</t>
   </si>
 </sst>
 </file>
